--- a/nba2k_editor/Offsets/Jerseys.xlsx
+++ b/nba2k_editor/Offsets/Jerseys.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Edition Name</t>
+          <t>EDITION_CRC32B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,35 +507,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EDITIONNAME</t>
+          <t>EDITIONCRC32B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0x5C (type=string, length=512, startBit=0)</t>
+          <t>0x54 (type=combo, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x5C (type=string, length=512, startBit=0)</t>
+          <t>0x54 (type=combo, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0x5C (type=string, length=512, startBit=0)</t>
+          <t>0x54 (type=combo, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0x68 (type=WString, length=64)</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDITION_CRC32B</t>
+          <t>EDITION_NAME</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,22 +541,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EDITIONCRC32B</t>
+          <t>EDITIONNAME</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0x54 (type=combo, length=32, startBit=0)</t>
+          <t>0x5C (type=string, length=512, startBit=0)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x54 (type=combo, length=32, startBit=0)</t>
+          <t>0x5C (type=string, length=512, startBit=0)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0x54 (type=combo, length=32, startBit=0)</t>
+          <t>0x5C (type=string, length=512, startBit=0)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -603,7 +599,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Headband Logo Type</t>
+          <t>HEADBAND_LOGO_TYPE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,16 +628,12 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0x16A (type=Integer, length=2, startBit=3)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Is Alternate</t>
+          <t>IS_ALTERNATE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,16 +662,12 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=5)</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Is Home</t>
+          <t>IS_HOME</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -704,16 +692,12 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=1)</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Is Team Create Uniform</t>
+          <t>IS_TEAM_CREATE_UNIFORM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,16 +726,12 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=2)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jacket Warmup</t>
+          <t>JACKET_WARMUP_CRC32B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -761,7 +741,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JACKETWARMUP</t>
+          <t>JACKETWARMUPCRC32B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -780,11 +760,7 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0xF4 (type=hex_bytes, length=4)</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -857,7 +833,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MyTeam Include</t>
+          <t>MYTEAM_INCLUDE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -886,16 +862,12 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=3)</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Number On Shorts</t>
+          <t>NUMBER_ON_SHORTS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -924,16 +896,12 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=4)</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Override NBA Patch</t>
+          <t>OVERRIDE_NBA_PATCH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -962,16 +930,12 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0x166 (type=Integer, length=1, startBit=6)</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Socks Away</t>
+          <t>SOCKS_AWAY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1000,16 +964,12 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0xEC (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Socks Color N#1</t>
+          <t>SOCKS_COLOR_N#1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1034,16 +994,12 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0xF8 (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Socks Color N#2</t>
+          <t>SOCKS_COLOR_N#2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1068,16 +1024,12 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0xFC (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Socks Color N#3</t>
+          <t>SOCKS_COLOR_N#3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1102,16 +1054,12 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Socks Color N#4</t>
+          <t>SOCKS_COLOR_N#4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1136,16 +1084,12 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Socks Color N#5</t>
+          <t>SOCKS_COLOR_N#5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1170,16 +1114,12 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0x108 (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Socks Home</t>
+          <t>SOCKS_HOME</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1208,16 +1148,12 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0xE8 (type=combo, length=4)</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sponsor Patch</t>
+          <t>SPONSOR_PATCH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1246,11 +1182,7 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0x48 (type=String, length=8)</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1323,7 +1255,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Uniform Address</t>
+          <t>UNIQUEID</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1333,78 +1265,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UNIFORMADDRESS</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>UNIQUEID</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x50 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x50 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0x50 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0x0 (type=address)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Uniform File</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Jersey Vitals</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>UNIFORMFILE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0x8 (type=String, length=72)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UNIQUEID</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Jersey Vitals</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>UNIQUEID</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x50 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x50 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0x50 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1417,7 +1297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,7 +1350,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arm Accessory Color Away</t>
+          <t>ARM_ACCESSORY_COLOR_AWAY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1499,16 +1379,12 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0x169 (type=Integer, length=3, startBit=1)</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arm Accessory Color Home</t>
+          <t>ARM_ACCESSORY_COLOR_HOME</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1537,16 +1413,12 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0x168 (type=Integer, length=3, startBit=6)</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Headband Color Away</t>
+          <t>HEADBAND_COLOR_AWAY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1575,16 +1447,12 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0x169 (type=Integer, length=3, startBit=7)</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Headband Color Home</t>
+          <t>HEADBAND_COLOR_HOME</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1613,16 +1481,12 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0x169 (type=Integer, length=3, startBit=4)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jersey Colors - PRIMARY_COLOR</t>
+          <t>LEG_ACCESSORY_COLOR_AWAY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1632,35 +1496,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMARYCOLOR</t>
+          <t>LEGACCESSORYCOLORAWAY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0x10C (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x10C (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0x10C (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0x128 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jersey Colors - QUATERNARY_COLOR</t>
+          <t>LEG_ACCESSORY_COLOR_HOME</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1670,35 +1530,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>QUATERNARYCOLOR</t>
+          <t>LEGACCESSORYCOLORHOME</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0x118 (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x118 (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0x118 (type=color, length=24, startBit=0)</t>
+          <t>0x14C (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0x134 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jersey Colors - TERTIARY_COLOR</t>
+          <t>PRIMARY_COLOR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1708,35 +1564,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TERTIARYCOLOR</t>
+          <t>PRIMARYCOLOR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0x114 (type=color, length=24, startBit=0)</t>
+          <t>0xF4 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x114 (type=color, length=24, startBit=0)</t>
+          <t>0xF4 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x114 (type=color, length=24, startBit=0)</t>
+          <t>0xF4 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0x130 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Leg Accessory Color Away</t>
+          <t>PRIMARY_COLOR#ACCESSORY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1746,35 +1598,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEGACCESSORYCOLORAWAY</t>
+          <t>PRIMARYCOLORACCESSORY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=3)</t>
+          <t>0x10C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=3)</t>
+          <t>0x10C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=3)</t>
+          <t>0x10C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0x168 (type=Integer, length=3, startBit=3)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Leg Accessory Color Home</t>
+          <t>PRIMARY_COLOR#SOCK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1784,35 +1632,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEGACCESSORYCOLORHOME</t>
+          <t>PRIMARYCOLORSOCK</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=0)</t>
+          <t>0x12C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=0)</t>
+          <t>0x12C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x14C (type=combo, length=3, startBit=0)</t>
+          <t>0x12C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0x168 (type=Integer, length=3, startBit=0)</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Primary Color Sock</t>
+          <t>QUATERNARY_COLOR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1822,35 +1666,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMARYCOLORSOCK</t>
+          <t>QUATERNARYCOLOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0x12C (type=color, length=24, startBit=0)</t>
+          <t>0x100 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x12C (type=color, length=24, startBit=0)</t>
+          <t>0x100 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x12C (type=color, length=24, startBit=0)</t>
+          <t>0x100 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0x148 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Quaternary Color Sock</t>
+          <t>QUATERNARY_COLOR#ACCESSORY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1860,35 +1700,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUATERNARYCOLORSOCK</t>
+          <t>QUATERNARYCOLORACCESSORY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0x138 (type=color, length=24, startBit=0)</t>
+          <t>0x118 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x138 (type=color, length=24, startBit=0)</t>
+          <t>0x118 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x138 (type=color, length=24, startBit=0)</t>
+          <t>0x118 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0x154 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Quintary Color</t>
+          <t>QUATERNARY_COLOR#SOCK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1898,35 +1734,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUINTARYCOLOR</t>
+          <t>QUATERNARYCOLORSOCK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0x11C (type=color, length=24, startBit=0)</t>
+          <t>0x138 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x11C (type=color, length=24, startBit=0)</t>
+          <t>0x138 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x11C (type=color, length=24, startBit=0)</t>
+          <t>0x138 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0x138 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Quintary Color Sock</t>
+          <t>QUINTARY_COLOR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1936,35 +1768,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>QUINTARYCOLORSOCK</t>
+          <t>QUINTARYCOLOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0x13C (type=color, length=24, startBit=0)</t>
+          <t>0x104 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13C (type=color, length=24, startBit=0)</t>
+          <t>0x104 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x13C (type=color, length=24, startBit=0)</t>
+          <t>0x104 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0x158 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Secondary Color Accessory</t>
+          <t>QUINTARY_COLOR#ACCESSORY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1974,35 +1802,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SECONDARYCOLORACCESSORY</t>
+          <t>QUINTARYCOLORACCESSORY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0x110 (type=color, length=24, startBit=0)</t>
+          <t>0x11C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x110 (type=color, length=24, startBit=0)</t>
+          <t>0x11C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x110 (type=color, length=24, startBit=0)</t>
+          <t>0x11C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0x12C (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Secondary Color Shoes Color</t>
+          <t>QUINTARY_COLOR#SOCK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2012,35 +1836,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SECONDARYCOLORSHOESCOLOR</t>
+          <t>QUINTARYCOLORSOCK</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0xF8 (type=color, length=24, startBit=0)</t>
+          <t>0x13C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0xF8 (type=color, length=24, startBit=0)</t>
+          <t>0x13C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0xF8 (type=color, length=24, startBit=0)</t>
+          <t>0x13C (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0x114 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Secondary Color Sock</t>
+          <t>SECONDARY_COLOR#ACCESSORY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2050,35 +1870,31 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SECONDARYCOLORSOCK</t>
+          <t>SECONDARYCOLORACCESSORY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0x130 (type=color, length=24, startBit=0)</t>
+          <t>0x110 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x130 (type=color, length=24, startBit=0)</t>
+          <t>0x110 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x130 (type=color, length=24, startBit=0)</t>
+          <t>0x110 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0x14C (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sextary Color</t>
+          <t>SECONDARY_COLOR#SOCK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2088,35 +1904,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEXTARYCOLOR</t>
+          <t>SECONDARYCOLORSOCK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0x108 (type=color, length=24, startBit=0)</t>
+          <t>0x130 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x108 (type=color, length=24, startBit=0)</t>
+          <t>0x130 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x108 (type=color, length=24, startBit=0)</t>
+          <t>0x130 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0x124 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shoe Primary Color Away</t>
+          <t>SECONDARY_COLOR_SHOES_COLOR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2126,35 +1938,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SHOEPRIMARYCOLORAWAY</t>
+          <t>SECONDARYCOLORSHOESCOLOR</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0x128 (type=color, length=24, startBit=0)</t>
+          <t>0xF8 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x128 (type=color, length=24, startBit=0)</t>
+          <t>0xF8 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0x128 (type=color, length=24, startBit=0)</t>
+          <t>0xF8 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0x144 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sock Color Away</t>
+          <t>SEXTARY_COLOR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2164,35 +1972,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOCKCOLORAWAY</t>
+          <t>SEXTARYCOLOR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0x14F (type=combo, length=3, startBit=0)</t>
+          <t>0x108 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x14F (type=combo, length=3, startBit=0)</t>
+          <t>0x108 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0x14F (type=combo, length=3, startBit=0)</t>
+          <t>0x108 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0x16B (type=Integer, length=3, startBit=0)</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sock Color Home</t>
+          <t>SHOE_PRIMARY_COLOR_AWAY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2202,35 +2006,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOCKCOLORHOME</t>
+          <t>SHOEPRIMARYCOLORAWAY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0x14E (type=combo, length=3, startBit=5)</t>
+          <t>0x128 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x14E (type=combo, length=3, startBit=5)</t>
+          <t>0x128 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0x14E (type=combo, length=3, startBit=5)</t>
+          <t>0x128 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0x16A (type=Integer, length=3, startBit=5)</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tertiary Color Sock</t>
+          <t>SOCK_COLOR_AWAY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2240,35 +2040,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TERTIARYCOLORSOCK</t>
+          <t>SOCKCOLORAWAY</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0x134 (type=color, length=24, startBit=0)</t>
+          <t>0x14F (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x134 (type=color, length=24, startBit=0)</t>
+          <t>0x14F (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0x134 (type=color, length=24, startBit=0)</t>
+          <t>0x14F (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0x150 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Under Shirt Color Away</t>
+          <t>SOCK_COLOR_HOME</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2278,35 +2074,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNDERSHIRTCOLORAWAY</t>
+          <t>SOCKCOLORHOME</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0x124 (type=color, length=24, startBit=0)</t>
+          <t>0x14E (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x124 (type=color, length=24, startBit=0)</t>
+          <t>0x14E (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0x124 (type=color, length=24, startBit=0)</t>
+          <t>0x14E (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0x140 (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Under Shirt Color Home</t>
+          <t>TERTIARY_COLOR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2316,30 +2108,162 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>TERTIARYCOLOR</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0xFC (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0xFC (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0xFC (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TERTIARY_COLOR#ACCESSORY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jersey Colors</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TERTIARYCOLORACCESSORY</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x114 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x114 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0x114 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TERTIARY_COLOR#SOCK</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jersey Colors</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TERTIARYCOLORSOCK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x134 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x134 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0x134 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UNDER_SHIRT_COLOR_AWAY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jersey Colors</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UNDERSHIRTCOLORAWAY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x124 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x124 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0x124 (type=color, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UNDER_SHIRT_COLOR_HOME</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jersey Colors</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>UNDERSHIRTCOLORHOME</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0x120 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0x120 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0x120 (type=color, length=24, startBit=0)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0x13C (type=color, length=3)</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
